--- a/SRS/Bảng phân công công việc.xlsx
+++ b/SRS/Bảng phân công công việc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HDs\Documents\DA CNPM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HDs\Desktop\DACNPM\DACN_CongNghePhanMem\SRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Phân tích</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>Tuần 1</t>
+  </si>
+  <si>
+    <t>Đặc tả use case</t>
+  </si>
+  <si>
+    <t>Use Case: Tìm kiếm phòng, Đặt phòng</t>
+  </si>
+  <si>
+    <t>Trần Thị Ngọc Hân</t>
   </si>
 </sst>
 </file>
@@ -137,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -264,11 +273,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -320,6 +342,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,7 +638,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,42 +712,50 @@
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15">
+        <v>2</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
@@ -723,11 +765,13 @@
       <c r="E11" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="E3:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/SRS/Bảng phân công công việc.xlsx
+++ b/SRS/Bảng phân công công việc.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Phân tích</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t xml:space="preserve">Mô tả yêu cầu phần mềm
 </t>
@@ -40,45 +37,70 @@
 phi chức năng</t>
   </si>
   <si>
+    <t>Xác định Use Case</t>
+  </si>
+  <si>
+    <t>BẢNG PHÂN CÔNG CÔNG VIỆC</t>
+  </si>
+  <si>
+    <t>Công việc</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Chi tiết công việc</t>
+  </si>
+  <si>
+    <t>Thời gian</t>
+  </si>
+  <si>
+    <t>Thành viên</t>
+  </si>
+  <si>
+    <t>Tuần 1</t>
+  </si>
+  <si>
+    <t>Đặc tả use case</t>
+  </si>
+  <si>
+    <t>Use Case: Tìm kiếm phòng, Đặt phòng</t>
+  </si>
+  <si>
+    <t>Trần Thị Ngọc Hân</t>
+  </si>
+  <si>
     <t>Huỳnh Trọng Tuấn
-Trần Thị Ngọc Hân</t>
-  </si>
-  <si>
-    <t>Xác định Use Case</t>
-  </si>
-  <si>
-    <t>Hồ Thanh Hiệp
+Hồ Thanh Hiệp</t>
+  </si>
+  <si>
+    <t>Github
+Outline SRS Document</t>
+  </si>
+  <si>
+    <t>Phân tích yêu cầu</t>
+  </si>
+  <si>
+    <t>Trần Thị Ngọc Hân
 Phạm Đức Hiếu</t>
   </si>
   <si>
-    <t>BẢNG PHÂN CÔNG CÔNG VIỆC</t>
-  </si>
-  <si>
-    <t>Công việc</t>
-  </si>
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>Chi tiết công việc</t>
-  </si>
-  <si>
-    <t>Thời gian</t>
-  </si>
-  <si>
-    <t>Thành viên</t>
-  </si>
-  <si>
-    <t>Tuần 1</t>
-  </si>
-  <si>
-    <t>Đặc tả use case</t>
-  </si>
-  <si>
-    <t>Use Case: Tìm kiếm phòng, Đặt phòng</t>
-  </si>
-  <si>
-    <t>Trần Thị Ngọc Hân</t>
+    <t>Tuần 2, 3</t>
+  </si>
+  <si>
+    <t>UML Design (Activity Diagram,Sequence Diagram)</t>
+  </si>
+  <si>
+    <t>Use Case: Đăng nhập, Đăng xuất, Thanh toán</t>
+  </si>
+  <si>
+    <t>Use Case: Quản lý đặt phòng</t>
+  </si>
+  <si>
+    <t>Use Case: Quản lý phòng</t>
+  </si>
+  <si>
+    <t>Use Case: Quản lý khách hàng</t>
   </si>
 </sst>
 </file>
@@ -126,7 +148,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,8 +167,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -254,6 +282,52 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -262,27 +336,89 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -290,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -310,9 +446,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -325,34 +458,67 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -635,143 +801,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
     <col min="3" max="3" width="45.44140625" customWidth="1"/>
     <col min="4" max="4" width="25.109375" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
+      <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:5" s="16" customFormat="1" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="30">
+        <v>2</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="30"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="30"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="19">
+        <v>3</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="19"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="19"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="19"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:5" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="19"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22">
         <v>4</v>
       </c>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15">
-        <v>2</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="B12" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="32"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="32"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="33"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="E3:E11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="E12:E15"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="E3:E10"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A7:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/SRS/Bảng phân công công việc.xlsx
+++ b/SRS/Bảng phân công công việc.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HDs\Desktop\DACNPM\DACN_CongNghePhanMem\SRS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanh Hiep\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5448"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="5445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t xml:space="preserve">Mô tả yêu cầu phần mềm
 </t>
@@ -101,13 +101,16 @@
   </si>
   <si>
     <t>Use Case: Quản lý khách hàng</t>
+  </si>
+  <si>
+    <t>Hồ Thanh Hiệp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,35 +119,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Verdana"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Verdana"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -426,100 +423,90 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -803,201 +790,203 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
-    <col min="3" max="3" width="45.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="16" customFormat="1" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30">
+    <row r="4" spans="1:5" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26">
         <v>2</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="30"/>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26"/>
       <c r="B5" s="28"/>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="1:5" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="30"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="1:5" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
       <c r="B6" s="29"/>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19">
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26">
         <v>3</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="5" t="s">
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:5" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="5" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" spans="1:5" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="5" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:5" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="21" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:5" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="26"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
+      <c r="D11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:5" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
         <v>4</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="31" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="32"/>
-    </row>
-    <row r="14" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="32"/>
-    </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="33"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
+    <row r="13" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/SRS/Bảng phân công công việc.xlsx
+++ b/SRS/Bảng phân công công việc.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanh Hiep\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HDs\Desktop\DACNPM\DACN_CongNghePhanMem\SRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="5445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5448"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t xml:space="preserve">Mô tả yêu cầu phần mềm
 </t>
@@ -104,12 +104,18 @@
   </si>
   <si>
     <t>Hồ Thanh Hiệp</t>
+  </si>
+  <si>
+    <t>Phạm Đức Hiếu</t>
+  </si>
+  <si>
+    <t>Huỳnh Trọng Tuấn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -790,19 +796,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
@@ -811,7 +817,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -828,7 +834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -843,7 +849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="26">
         <v>2</v>
       </c>
@@ -858,7 +864,7 @@
       </c>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="26"/>
       <c r="B5" s="28"/>
       <c r="C5" s="9" t="s">
@@ -869,7 +875,7 @@
       </c>
       <c r="E5" s="16"/>
     </row>
-    <row r="6" spans="1:5" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="26"/>
       <c r="B6" s="29"/>
       <c r="C6" s="10" t="s">
@@ -880,7 +886,7 @@
       </c>
       <c r="E6" s="16"/>
     </row>
-    <row r="7" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="26">
         <v>3</v>
       </c>
@@ -895,34 +901,40 @@
       </c>
       <c r="E7" s="16"/>
     </row>
-    <row r="8" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="26"/>
       <c r="B8" s="28"/>
       <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="1:5" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="26"/>
       <c r="B9" s="28"/>
       <c r="C9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="1:5" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="26"/>
       <c r="B10" s="28"/>
       <c r="C10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:5" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="26"/>
       <c r="B11" s="28"/>
       <c r="C11" s="11" t="s">
@@ -933,7 +945,7 @@
       </c>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="1:5" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>4</v>
       </c>
@@ -946,42 +958,42 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="21"/>
       <c r="C13" s="12"/>
       <c r="D13" s="14"/>
       <c r="E13" s="21"/>
     </row>
-    <row r="14" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="21"/>
       <c r="C14" s="12"/>
       <c r="D14" s="14"/>
       <c r="E14" s="21"/>
     </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15" s="22"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>

--- a/SRS/Bảng phân công công việc.xlsx
+++ b/SRS/Bảng phân công công việc.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HDs\Desktop\DACNPM\DACN_CongNghePhanMem\SRS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DACN_CongNghePhanMem\SRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5448"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="5445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -493,26 +493,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -796,28 +796,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
-    <col min="3" max="3" width="45.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -834,7 +834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -849,11 +849,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="26">
+    <row r="4" spans="1:5" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23">
         <v>2</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -864,9 +864,9 @@
       </c>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="26"/>
-      <c r="B5" s="28"/>
+    <row r="5" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
@@ -875,9 +875,9 @@
       </c>
       <c r="E5" s="16"/>
     </row>
-    <row r="6" spans="1:5" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="26"/>
-      <c r="B6" s="29"/>
+    <row r="6" spans="1:5" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="10" t="s">
         <v>3</v>
       </c>
@@ -886,11 +886,11 @@
       </c>
       <c r="E6" s="16"/>
     </row>
-    <row r="7" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="26">
+    <row r="7" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23">
         <v>3</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -901,9 +901,9 @@
       </c>
       <c r="E7" s="16"/>
     </row>
-    <row r="8" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="26"/>
-      <c r="B8" s="28"/>
+    <row r="8" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
@@ -912,9 +912,9 @@
       </c>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="1:5" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="26"/>
-      <c r="B9" s="28"/>
+    <row r="9" spans="1:5" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="9" t="s">
         <v>21</v>
       </c>
@@ -923,9 +923,9 @@
       </c>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="1:5" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="26"/>
-      <c r="B10" s="28"/>
+    <row r="10" spans="1:5" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="9" t="s">
         <v>22</v>
       </c>
@@ -934,9 +934,9 @@
       </c>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:5" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="26"/>
-      <c r="B11" s="28"/>
+    <row r="11" spans="1:5" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="11" t="s">
         <v>23</v>
       </c>
@@ -945,7 +945,7 @@
       </c>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>4</v>
       </c>
@@ -958,42 +958,42 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="21"/>
       <c r="C13" s="12"/>
       <c r="D13" s="14"/>
       <c r="E13" s="21"/>
     </row>
-    <row r="14" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="21"/>
       <c r="C14" s="12"/>
       <c r="D14" s="14"/>
       <c r="E14" s="21"/>
     </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="22"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>

--- a/SRS/Bảng phân công công việc.xlsx
+++ b/SRS/Bảng phân công công việc.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DACN_CongNghePhanMem\SRS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HDs\Desktop\DACNPM\DACN_CongNghePhanMem\SRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="5445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5448"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -493,18 +493,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -513,6 +501,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -797,27 +797,27 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -834,7 +834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -849,11 +849,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23">
+    <row r="4" spans="1:5" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="26">
         <v>2</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -864,9 +864,9 @@
       </c>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="25"/>
+    <row r="5" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="26"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
@@ -875,9 +875,9 @@
       </c>
       <c r="E5" s="16"/>
     </row>
-    <row r="6" spans="1:5" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="26"/>
+    <row r="6" spans="1:5" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="26"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="10" t="s">
         <v>3</v>
       </c>
@@ -886,11 +886,11 @@
       </c>
       <c r="E6" s="16"/>
     </row>
-    <row r="7" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23">
+    <row r="7" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="26">
         <v>3</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -901,9 +901,9 @@
       </c>
       <c r="E7" s="16"/>
     </row>
-    <row r="8" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="25"/>
+    <row r="8" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="26"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
@@ -912,31 +912,31 @@
       </c>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="1:5" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="25"/>
+    <row r="9" spans="1:5" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="26"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="1:5" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="25"/>
+    <row r="10" spans="1:5" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="26"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:5" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="25"/>
+    <row r="11" spans="1:5" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="26"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="11" t="s">
         <v>23</v>
       </c>
@@ -945,7 +945,7 @@
       </c>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="1:5" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>4</v>
       </c>
@@ -958,42 +958,42 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="21"/>
       <c r="C13" s="12"/>
       <c r="D13" s="14"/>
       <c r="E13" s="21"/>
     </row>
-    <row r="14" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="21"/>
       <c r="C14" s="12"/>
       <c r="D14" s="14"/>
       <c r="E14" s="21"/>
     </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15" s="22"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>

--- a/SRS/Bảng phân công công việc.xlsx
+++ b/SRS/Bảng phân công công việc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t xml:space="preserve">Mô tả yêu cầu phần mềm
 </t>
@@ -85,12 +85,6 @@
 Phạm Đức Hiếu</t>
   </si>
   <si>
-    <t>Tuần 2, 3</t>
-  </si>
-  <si>
-    <t>UML Design (Activity Diagram,Sequence Diagram)</t>
-  </si>
-  <si>
     <t>Use Case: Đăng nhập, Đăng xuất, Thanh toán</t>
   </si>
   <si>
@@ -110,13 +104,89 @@
   </si>
   <si>
     <t>Huỳnh Trọng Tuấn</t>
+  </si>
+  <si>
+    <t>Tuần 2</t>
+  </si>
+  <si>
+    <t>Chức năng: Tìm kiếm phòng, Đặt phòng</t>
+  </si>
+  <si>
+    <t>Chức năng: Đăng nhập, Đăng xuất, Thanh toán</t>
+  </si>
+  <si>
+    <t>Chức năng: Quản lý đặt phòng</t>
+  </si>
+  <si>
+    <t>Chức năng: Quản lý phòng</t>
+  </si>
+  <si>
+    <t>Chức năng: Quản lý khách hàng</t>
+  </si>
+  <si>
+    <t>UML Design 
+(Activity Diagram
+Sequence Diagram)</t>
+  </si>
+  <si>
+    <t>Prototype
+Class Diagram
+Database</t>
+  </si>
+  <si>
+    <t>Tuần 3</t>
+  </si>
+  <si>
+    <t>Chức năng đặt phòng,thanh toán</t>
+  </si>
+  <si>
+    <t>Tuần 4</t>
+  </si>
+  <si>
+    <t>Tuần 5</t>
+  </si>
+  <si>
+    <t>Tuần 6</t>
+  </si>
+  <si>
+    <t>Chức năng quản lý đặt phòng</t>
+  </si>
+  <si>
+    <t>Tuần 7</t>
+  </si>
+  <si>
+    <t>Chức năng đăng ký, đăng nhập, tìm kiếm</t>
+  </si>
+  <si>
+    <t>Chức năng quản lý khách hàng</t>
+  </si>
+  <si>
+    <t>Chức năng quản lý thông tin phòng</t>
+  </si>
+  <si>
+    <t>Tuần 8</t>
+  </si>
+  <si>
+    <t>Hiện thực code</t>
+  </si>
+  <si>
+    <t>Debug và hoàn chỉnh code</t>
+  </si>
+  <si>
+    <t>Tuần 9</t>
+  </si>
+  <si>
+    <t>Hoàn thành code và document</t>
+  </si>
+  <si>
+    <t>Tuần 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +220,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -177,7 +254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -351,7 +428,114 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -361,64 +545,31 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -429,7 +580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -461,36 +612,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -514,6 +641,64 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,26 +979,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="39.21875" customWidth="1"/>
     <col min="3" max="3" width="45.44140625" customWidth="1"/>
     <col min="4" max="4" width="25.109375" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
@@ -845,15 +1030,15 @@
       <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="26">
+      <c r="A4" s="18">
         <v>2</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -862,35 +1047,35 @@
       <c r="D4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="26"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:5" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="26"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="26">
+      <c r="A7" s="18">
         <v>3</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -899,118 +1084,224 @@
       <c r="D7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="26"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="26"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="18"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="22">
+        <v>4</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="1:5" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="26"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="9" t="s">
+      <c r="D12" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="23"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="1:5" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" spans="1:5" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="24"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="1:5" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="26"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
-        <v>4</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="21"/>
-    </row>
-    <row r="14" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="21"/>
-    </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" spans="1:5" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33">
+        <v>5</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E17" s="33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="37">
+        <v>6</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="35"/>
+      <c r="E18" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="38"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="38"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="38"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="39"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="36">
+        <v>7</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="33">
+        <v>8</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="43" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
     <mergeCell ref="E3:E11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="E12:E15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="E12:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/SRS/Bảng phân công công việc.xlsx
+++ b/SRS/Bảng phân công công việc.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HDs\Desktop\DACNPM\DACN_CongNghePhanMem\SRS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DACN_CongNghePhanMem\SRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5448"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="5445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -614,64 +614,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -680,6 +626,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -698,7 +645,60 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -982,27 +982,27 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.21875" customWidth="1"/>
-    <col min="3" max="3" width="45.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1030,15 +1030,15 @@
       <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18">
+    <row r="4" spans="1:5" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -1047,35 +1047,35 @@
       <c r="D4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
-      <c r="B5" s="20"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
-      <c r="B6" s="21"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:5" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="31"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="18">
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="31">
         <v>3</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -1084,208 +1084,208 @@
       <c r="D7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
-      <c r="B8" s="20"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
-      <c r="B9" s="20"/>
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" spans="1:5" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18"/>
-      <c r="B10" s="20"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="1:5" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:5" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
-      <c r="B11" s="20"/>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="1:5" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="31"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:5" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="22">
+      <c r="E11" s="27"/>
+    </row>
+    <row r="12" spans="1:5" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="35">
         <v>4</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
-      <c r="B13" s="31"/>
+    <row r="13" spans="1:5" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="36"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="26"/>
-    </row>
-    <row r="14" spans="1:5" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
-      <c r="B14" s="31"/>
+      <c r="E13" s="42"/>
+    </row>
+    <row r="14" spans="1:5" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="36"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="26"/>
-    </row>
-    <row r="15" spans="1:5" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
-      <c r="B15" s="31"/>
+      <c r="E14" s="42"/>
+    </row>
+    <row r="15" spans="1:5" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="36"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="26"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="24"/>
-      <c r="B16" s="32"/>
+      <c r="E15" s="42"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="37"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="27"/>
-    </row>
-    <row r="17" spans="1:5" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33">
+      <c r="E16" s="43"/>
+    </row>
+    <row r="17" spans="1:5" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
         <v>5</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37">
+    <row r="18" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20">
         <v>6</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="33" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="38"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="33" t="s">
+    <row r="19" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="33" t="s">
+    <row r="20" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33" t="s">
+      <c r="D20" s="15"/>
+      <c r="E20" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="38"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="33" t="s">
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33" t="s">
+      <c r="D21" s="15"/>
+      <c r="E21" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="33" t="s">
+    <row r="22" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33" t="s">
+      <c r="D22" s="15"/>
+      <c r="E22" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="36">
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
         <v>7</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33" t="s">
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="33">
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
         <v>8</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="43" t="s">
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="19" t="s">
         <v>48</v>
       </c>
     </row>

--- a/SRS/Bảng phân công công việc.xlsx
+++ b/SRS/Bảng phân công công việc.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DACN_CongNghePhanMem\SRS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HDs\Desktop\DACNPM\DACN_CongNghePhanMem\SRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="5445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5448"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t xml:space="preserve">Mô tả yêu cầu phần mềm
 </t>
@@ -180,12 +180,17 @@
   </si>
   <si>
     <t>Tuần 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prototype cho từng chức năng
+Class Diagram tổng hợp
+Thiết kế mô hình Database</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -580,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -698,6 +703,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -981,19 +989,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>4</v>
       </c>
@@ -1002,7 +1010,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1019,7 +1027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1034,7 +1042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="31">
         <v>2</v>
       </c>
@@ -1049,7 +1057,7 @@
       </c>
       <c r="E4" s="27"/>
     </row>
-    <row r="5" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31"/>
       <c r="B5" s="33"/>
       <c r="C5" s="9" t="s">
@@ -1060,7 +1068,7 @@
       </c>
       <c r="E5" s="27"/>
     </row>
-    <row r="6" spans="1:5" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="31"/>
       <c r="B6" s="34"/>
       <c r="C6" s="10" t="s">
@@ -1071,7 +1079,7 @@
       </c>
       <c r="E6" s="27"/>
     </row>
-    <row r="7" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="31">
         <v>3</v>
       </c>
@@ -1086,7 +1094,7 @@
       </c>
       <c r="E7" s="27"/>
     </row>
-    <row r="8" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31"/>
       <c r="B8" s="33"/>
       <c r="C8" s="9" t="s">
@@ -1097,7 +1105,7 @@
       </c>
       <c r="E8" s="27"/>
     </row>
-    <row r="9" spans="1:5" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="31"/>
       <c r="B9" s="33"/>
       <c r="C9" s="9" t="s">
@@ -1108,7 +1116,7 @@
       </c>
       <c r="E9" s="27"/>
     </row>
-    <row r="10" spans="1:5" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="31"/>
       <c r="B10" s="33"/>
       <c r="C10" s="9" t="s">
@@ -1119,7 +1127,7 @@
       </c>
       <c r="E10" s="27"/>
     </row>
-    <row r="11" spans="1:5" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="31"/>
       <c r="B11" s="33"/>
       <c r="C11" s="11" t="s">
@@ -1130,7 +1138,7 @@
       </c>
       <c r="E11" s="27"/>
     </row>
-    <row r="12" spans="1:5" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="35">
         <v>4</v>
       </c>
@@ -1147,7 +1155,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="31.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="36"/>
       <c r="B13" s="39"/>
       <c r="C13" s="12" t="s">
@@ -1158,7 +1166,7 @@
       </c>
       <c r="E13" s="42"/>
     </row>
-    <row r="14" spans="1:5" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="31.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="36"/>
       <c r="B14" s="39"/>
       <c r="C14" s="12" t="s">
@@ -1169,7 +1177,7 @@
       </c>
       <c r="E14" s="42"/>
     </row>
-    <row r="15" spans="1:5" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="36"/>
       <c r="B15" s="39"/>
       <c r="C15" s="12" t="s">
@@ -1180,7 +1188,7 @@
       </c>
       <c r="E15" s="42"/>
     </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="37"/>
       <c r="B16" s="40"/>
       <c r="C16" s="12" t="s">
@@ -1191,20 +1199,22 @@
       </c>
       <c r="E16" s="43"/>
     </row>
-    <row r="17" spans="1:5" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>5</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>6</v>
       </c>
@@ -1219,7 +1229,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
       <c r="B19" s="24"/>
       <c r="C19" s="15" t="s">
@@ -1230,7 +1240,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21"/>
       <c r="B20" s="24"/>
       <c r="C20" s="15" t="s">
@@ -1241,7 +1251,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
       <c r="B21" s="24"/>
       <c r="C21" s="15" t="s">
@@ -1252,7 +1262,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22"/>
       <c r="B22" s="25"/>
       <c r="C22" s="15" t="s">
@@ -1263,7 +1273,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>7</v>
       </c>
@@ -1276,7 +1286,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>8</v>
       </c>

--- a/SRS/Bảng phân công công việc.xlsx
+++ b/SRS/Bảng phân công công việc.xlsx
@@ -632,6 +632,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -703,9 +706,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -989,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1002,11 +1002,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
@@ -1038,15 +1038,15 @@
       <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="31">
+      <c r="A4" s="32">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -1055,35 +1055,35 @@
       <c r="D4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="31"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:5" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="31"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="27"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="31">
+      <c r="A7" s="32">
         <v>3</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -1092,57 +1092,57 @@
       <c r="D7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="27"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="31"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:5" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="31"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="27"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="27"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:5" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="31"/>
-      <c r="B11" s="33"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="27"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:5" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35">
+      <c r="A12" s="36">
         <v>4</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="39" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -1151,53 +1151,53 @@
       <c r="D12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="42" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="31.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="36"/>
-      <c r="B13" s="39"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="42"/>
+      <c r="E13" s="43"/>
     </row>
     <row r="14" spans="1:5" ht="31.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="36"/>
-      <c r="B14" s="39"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="42"/>
+      <c r="E14" s="43"/>
     </row>
     <row r="15" spans="1:5" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="36"/>
-      <c r="B15" s="39"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="42"/>
+      <c r="E15" s="43"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="37"/>
-      <c r="B16" s="40"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="43"/>
+      <c r="E16" s="44"/>
     </row>
     <row r="17" spans="1:5" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
@@ -1206,7 +1206,7 @@
       <c r="B17" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="20" t="s">
         <v>49</v>
       </c>
       <c r="D17" s="2"/>
@@ -1215,10 +1215,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20">
+      <c r="A18" s="21">
         <v>6</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="24" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="15" t="s">
@@ -1230,8 +1230,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="24"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="15" t="s">
         <v>34</v>
       </c>
@@ -1241,8 +1241,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="24"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="15" t="s">
         <v>38</v>
       </c>
@@ -1252,8 +1252,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="24"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="15" t="s">
         <v>42</v>
       </c>
@@ -1263,8 +1263,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="25"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="15" t="s">
         <v>41</v>
       </c>
